--- a/biology/Botanique/Eriodictyon/Eriodictyon.xlsx
+++ b/biology/Botanique/Eriodictyon/Eriodictyon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriodictyon est un genre de plantes nord-américaines de la famille des Boraginaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces sont des arbustes persistants, ramifiés et denses. Les parties de la plante sont glabres à laineuses ou glandulaires. Les feuilles alternes sont épaisses, pétiolées ou avec une marge foliaire lisse ou dentelée.
 Il y a beaucoup de fleurs dans les inflorescences terminales et ramifiées. Les fleurs hermaphrodites sont quintuples avec un double périanthe. Les sépales inégaux ne grandissent ensemble qu'à leur base. Les pétales violets à pourpres ou blancs sont en forme d'entonnoir à tubulaires et surtout plus longs que les sépales. Les étamines commencent à la base du tube de la couronne et ne dépassent pas de la couronne. Deux carpelles poussent ensemble pour former un ovaire supérieur. Il y a deux à quatre ovules dans chaque chambre ovarienne.
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces se trouvent dans le sud-ouest des États-Unis et dans les régions adjacentes du Mexique. Une plus grande zone est peuplée par Eriodictyon angustifolium, qui s'étend dans le nord-est des États-Unis.
 </t>
@@ -575,7 +591,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Eriodictyon altissimum P.V.Wells
 Eriodictyon angustifolium Nutt.
